--- a/BalanceSheet/VTRS_bal.xlsx
+++ b/BalanceSheet/VTRS_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-209500000.0</v>
+        <v>5472000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-256600000.0</v>
+        <v>3022000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-144000000.0</v>
+        <v>2786000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-131800000.0</v>
+        <v>2640000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-35300000.0</v>
+        <v>2671000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>2763500000.0</v>
@@ -1870,19 +1870,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>17000000.0</v>
+        <v>1346000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>134800000.0</v>
+        <v>901000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-33500000.0</v>
+        <v>801000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-201000000.0</v>
+        <v>875000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-13100000.0</v>
+        <v>1062000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1511300000.0</v>
@@ -2782,19 +2782,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-2800000.0</v>
+        <v>976000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-90700000.0</v>
+        <v>759000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-75800000.0</v>
+        <v>793000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-43900000.0</v>
+        <v>837000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-34600000.0</v>
+        <v>924000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>1557000000.0</v>
